--- a/BARU/2023/01 JAN/KELUAR.xlsx
+++ b/BARU/2023/01 JAN/KELUAR.xlsx
@@ -28,13 +28,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="75" r:id="rId10"/>
+    <pivotCache cacheId="89" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="486">
   <si>
     <t>Column1</t>
   </si>
@@ -1472,6 +1472,27 @@
   <si>
     <t>0759</t>
   </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>STASDI1102</t>
+  </si>
+  <si>
+    <t>STASDI1123</t>
+  </si>
+  <si>
+    <t>STAPLER SDI 1102 NO.10 (HD-10)</t>
+  </si>
+  <si>
+    <t>STAPLER SDI 1123</t>
+  </si>
+  <si>
+    <t>STAPLER SDI 1123LSN300000</t>
+  </si>
+  <si>
+    <t>STAPLER SDI 1102 NO.10 (HD-10)LSN138000</t>
+  </si>
 </sst>
 </file>
 
@@ -2809,7 +2830,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <i/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3418,7 +3444,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Table Style 1" pivot="0" count="1">
-      <tableStyleElement type="totalRow" dxfId="67"/>
+      <tableStyleElement type="totalRow" dxfId="68"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -12153,11 +12179,36 @@
             <v>AM</v>
           </cell>
         </row>
+        <row r="3766">
+          <cell r="D3766">
+            <v>44952</v>
+          </cell>
+        </row>
+        <row r="3768">
+          <cell r="D3768" t="str">
+            <v>KO 0700</v>
+          </cell>
+        </row>
         <row r="3770">
           <cell r="D3770" t="str">
             <v>C</v>
           </cell>
         </row>
+        <row r="3772">
+          <cell r="D3772">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3773">
+          <cell r="D3773">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3774">
+          <cell r="D3774">
+            <v>2</v>
+          </cell>
+        </row>
         <row r="3802">
           <cell r="D3802" t="str">
             <v>AM</v>
@@ -12165,12 +12216,12 @@
         </row>
         <row r="3804">
           <cell r="D3804">
-            <v>0</v>
+            <v>44952</v>
           </cell>
         </row>
         <row r="3806">
-          <cell r="D3806">
-            <v>0</v>
+          <cell r="D3806" t="str">
+            <v>KO 0700</v>
           </cell>
         </row>
         <row r="3808">
@@ -12180,17 +12231,17 @@
         </row>
         <row r="3810">
           <cell r="D3810">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3811">
           <cell r="D3811">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3812">
           <cell r="D3812">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="3813">
@@ -12265,12 +12316,12 @@
         </row>
         <row r="3842">
           <cell r="D3842">
-            <v>0</v>
+            <v>44952</v>
           </cell>
         </row>
         <row r="3844">
-          <cell r="D3844">
-            <v>0</v>
+          <cell r="D3844" t="str">
+            <v>KO 0700</v>
           </cell>
         </row>
         <row r="3846">
@@ -12280,17 +12331,17 @@
         </row>
         <row r="3848">
           <cell r="D3848">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3849">
           <cell r="D3849">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="3850">
           <cell r="D3850">
-            <v>0</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="3851">
@@ -26719,13 +26770,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44947.632760300927" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="181">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="44952.64257384259" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="181">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="29">
     <cacheField name="//" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="162" count="35">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="164" count="36">
         <n v="3"/>
         <s v=""/>
         <n v="8"/>
@@ -26761,13 +26812,14 @@
         <n v="156"/>
         <n v="159"/>
         <n v="162"/>
+        <n v="164"/>
       </sharedItems>
     </cacheField>
     <cacheField name="h_No. Invoice :" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23010001" maxValue="23010033"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="23010001" maxValue="23010034"/>
     </cacheField>
     <cacheField name="Tgl Invoice :" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-01-02T00:00:00" maxDate="2023-01-21T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-01-02T00:00:00" maxDate="2023-01-27T00:00:00"/>
     </cacheField>
     <cacheField name="h_Kode Sales :_1" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -26824,7 +26876,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="h_id" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="162"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="164"/>
     </cacheField>
     <cacheField name="h_jumlahbarang" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="14"/>
@@ -26845,7 +26897,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="H_A1" numFmtId="43">
-      <sharedItems count="312">
+      <sharedItems count="315">
         <s v="PENSIL KENKO 2B-6191 HIJAU CAP HITAMGRS110400"/>
         <s v="PENSIL KENKO 2B 0192GRS122400"/>
         <s v="STAPLER KENKO HD-10LSN93000"/>
@@ -26953,211 +27005,214 @@
         <s v="PUNCH JOYKO 30XLPCS12950"/>
         <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)SET21200"/>
         <s v="PAPER TRIGONAL CLIP JOYKO NO. 3BOX1625"/>
-        <s v="CORRECTION TAPE KENKO CT-902 (12M x 5MM)LSN" u="1"/>
-        <s v="LSNSTAPLER KENKO HD-50" u="1"/>
-        <s v="LOOSE LEAF JOYKO A5-7020 (50S)PAK" u="1"/>
-        <s v="CORRECTION FLUID JOYKO CF-S209ALSN" u="1"/>
-        <s v="LEM LIQUID (CAIR) JOYKO GL-R35 (35 ML)LSN" u="1"/>
-        <s v="STAPLER KENKO HD-10DLSN" u="1"/>
+        <s v="STAPLER SDI 1102 NO.10 (HD-10)LSN138000"/>
+        <s v="STAPLER SDI 1123LSN300000"/>
+        <s v="PCSCALCULATOR JOYKO CC-800CH" u="1"/>
+        <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-11LSN" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B40P PUTIH" u="1"/>
+        <s v="STAMP PAD KENKO NO. 0LSN" u="1"/>
+        <s v="DOZSTIP / PENGHAPUS JOYKO 526-B40P PUTIH" u="1"/>
+        <e v="#REF!" u="1"/>
+        <s v="CRAYON / OIL PASTEL JOYKO OP-18S PP CASE SEA WORLDPCS" u="1"/>
+        <s v="CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLDPCS" u="1"/>
+        <s v="CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLDPCS" u="1"/>
+        <s v="CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLDPCS" u="1"/>
+        <s v="PCSHIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)" u="1"/>
+        <s v="PCSHIGHLIGHTER / STABILLO JOYKO HL-1 KUNING" u="1"/>
+        <s v="STIP / PENGHAPUS JOYKO 526-B20 PUTIHDOS" u="1"/>
+        <s v="LSNGEL PEN KENKO 0.28MM MICROTEC" u="1"/>
+        <s v="LABEL HARGA JOYKO LB-P2LN (2 LINE PUTIH)PCS" u="1"/>
+        <s v="GRSBINDER CLIP KENKO NO. 107" u="1"/>
+        <s v="LSNSTAMP PAD KENKO NO. 0" u="1"/>
+        <s v="PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)LSN" u="1"/>
+        <s v="PAPER JUMBO CLIP KENKO NO. 5PAK" u="1"/>
+        <s v="KARTU STOCK KWARTO PUTIHPAK" u="1"/>
+        <s v="DATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)PCS" u="1"/>
+        <s v="PCSLABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)" u="1"/>
+        <s v="DATE STAMP JOYKO S-68 (Lunas)LSN" u="1"/>
+        <s v="CUTTER 9 MM KENKO K-200 (KECIL)LSN" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-37" u="1"/>
+        <s v="PENCIL CASE KENKO PC-0719 FANCYLSN" u="1"/>
+        <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULARLSN" u="1"/>
+        <s v="PCSSTAPLER GUNTACKER JOYKO GT-700" u="1"/>
+        <s v="HIGHLIGHTER / STABILLO JOYKO HL-1 KUNINGPCS" u="1"/>
+        <s v="PAKLABEL HARGA KENKO 5002-2R (2 LINE) isi 10 rol" u="1"/>
+        <s v="LSNCUTTER 9 MM KENKO K-200 (KECIL)" u="1"/>
+        <s v="LSNJANGKA (MATH SET) JOYKO MS-75" u="1"/>
+        <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIHDOZ" u="1"/>
+        <s v="LSNDATE STAMP JOYKO S-68 (Lunas)" u="1"/>
+        <s v="STIP / PENGHAPUS JOYKO 526-B40BL HITAMDOS" u="1"/>
+        <s v="GRSISI PENSIL 2B 0.5 MM JOYKO PL-05" u="1"/>
+        <s v="GRSPENSIL KENKO 2B-6191 HIJAU CAP HITAM" u="1"/>
+        <s v="LABEL HARGA KENKO 5002-2R (2 LINE) isi 10 rolPAK" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B20 PUTIH" u="1"/>
+        <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)SET" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-41" u="1"/>
+        <s v="STAPLER JOYKO HD-10LSN" u="1"/>
+        <s v="STAPLER KENKO HD-10LSN" u="1"/>
+        <s v="STAPLER KENKO HD-50LSN" u="1"/>
+        <s v="STAPLER HEAVY DUTY JOYKO HD-12N/24PCS" u="1"/>
+        <s v="CORRECTION TAPE JOYKO CT-507PCS" u="1"/>
+        <s v="GEL PEN KENKO HI-TECH-H 0.28 MM HITAMLSN" u="1"/>
+        <s v="STAPLER HEAVY DUTY JOYKO HD-12N/13PCS" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-12CO WARNA" u="1"/>
+        <s v="MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS" u="1"/>
+        <s v="GRSBINDER CLIP KENKO NO. 260" u="1"/>
+        <s v="CALCULATOR JOYKO CC-41PCS" u="1"/>
+        <s v="BINDER CLIP KENKO NO. 107GRS" u="1"/>
+        <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)PCS" u="1"/>
+        <s v="CALCULATOR JOYKO CC-8APCS" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS JOYKO ER-B20BL HITAM" u="1"/>
+        <s v="BOXCORRECTION FLUID JOYKO CF-S224" u="1"/>
+        <s v="LSNPENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-15A" u="1"/>
+        <s v="GEL PEN ZHIXIN 3112LSN18000" u="1"/>
         <s v="PCSCALCULATOR JOYKO CC-47CO" u="1"/>
-        <s v="BINDER CLIP KENKO NO. 200GRS" u="1"/>
-        <s v="LSNLEM LIQUID (CAIR) JOYKO GL-R35 (35 ML)" u="1"/>
-        <s v="PENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)LSN" u="1"/>
-        <s v="BOXLEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc" u="1"/>
-        <s v="LSNPENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)" u="1"/>
-        <s v="LSNSTAPLER KENKO HD-10D" u="1"/>
-        <s v="PENSIL JOYKO 2B P-88GRS" u="1"/>
-        <s v="LSNJANGKA (MATH SET) JOYKO MS-75" u="1"/>
-        <s v="PENCIL CASE KENKO PC-0719-MIXLSN" u="1"/>
-        <s v="STAPLER HEAVY DUTY KENKO HD-12L/24PCS" u="1"/>
-        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIXPCS3700" u="1"/>
-        <s v="ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)PAK" u="1"/>
-        <s v="BINDER CLIP KENKO NO. 260GRS" u="1"/>
-        <s v="LSNGEL PEN JOYKO GP-265 Q-GEL" u="1"/>
-        <s v="STIP / PENGHAPUS JOYKO 526-B20 PUTIHDOS" u="1"/>
-        <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULARLSN" u="1"/>
-        <s v="PAKLABEL HARGA KENKO 5002-2R (2 LINE) isi 10 rol" u="1"/>
-        <s v="PAKKARTU STOCK FOLIO PUTIH" u="1"/>
-        <s v="PAKLOOSE LEAF JOYKO A5-7020 (50S)" u="1"/>
-        <s v="GUNTING JOYKO SC-828LSN" u="1"/>
-        <s v="PCSSTAMP PLATE DATER KENKO S-68 (Cap Lunas)" u="1"/>
+        <s v="LSNCORRECTION FLUID JOYKO CF-S225" u="1"/>
+        <s v="GEL PEN ZHIXIN 3093LSN18000" u="1"/>
+        <s v="GEL PEN ZHIXIN 3103LSN18000" u="1"/>
+        <s v="BALLPEN JOYKO BP-338 VOCUS HITAMLSN" u="1"/>
+        <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcBOX" u="1"/>
+        <s v="PAKKARTU STOCK KWARTO PUTIH" u="1"/>
+        <s v="GRSPENSIL JOYKO 2B P-88" u="1"/>
+        <s v="LABEL HARGA JOYKO LB-3 (2 LINE KUNING FLUOR)PCS" u="1"/>
+        <s v="LSNISI CUTTER 18 MM KENKO L-150 (BESAR)" u="1"/>
         <s v="PCSCRAYON / OIL PASTEL JOYKO OP-18S PP CASE SEA WORLD" u="1"/>
         <s v="PCSCRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLD" u="1"/>
         <s v="PCSCRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLD" u="1"/>
         <s v="PCSCRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLD" u="1"/>
-        <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-10LSN" u="1"/>
-        <s v="PCSHIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)" u="1"/>
-        <s v="LSNGEL PEN KENKO 0.28MM MICROTEC" u="1"/>
-        <s v="MESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)PCS" u="1"/>
-        <s v="GEL PEN ZHIXIN 3112LSN18000" u="1"/>
-        <s v="LSNCUTTER 9 MM KENKO K-200 (KECIL)" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B20 PUTIH" u="1"/>
+        <s v="ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)BOX" u="1"/>
+        <s v="PAKISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)" u="1"/>
+        <s v="LSNPENCIL CASE KENKO PC-0719-MIX" u="1"/>
+        <s v="LSNPENCIL CASE KENKO PC-0719 FANCY" u="1"/>
+        <s v="LSNGEL PEN ZHIXIN 3093" u="1"/>
+        <s v="LSNSTAPLER JOYKO HD-10" u="1"/>
+        <s v="LSNGUNTING JOYKO SC-828" u="1"/>
+        <s v="CORRECTION FLUID KENKO KE-823MLSN" u="1"/>
+        <s v="BOXCORRECTION FLUID JOYKO CF-S221" u="1"/>
+        <s v="PCSDATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)" u="1"/>
+        <s v="PCSPENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)" u="1"/>
+        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)PCS" u="1"/>
+        <s v="STAPLER GUNTACKER JOYKO GT-700PCS" u="1"/>
+        <s v="LSN26100" u="1"/>
+        <s v="PCSDOUBLE TAPE KENKO 48 MM - BLUE CORE (2&quot;)" u="1"/>
+        <s v="CORRECTION FLUID JOYKO CF-S225LSN" u="1"/>
+        <s v="PCSCORRECTION TAPE JOYKO CT-507" u="1"/>
+        <s v="PENSIL JOYKO 2B P-88GRS" u="1"/>
+        <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIHDOS" u="1"/>
+        <s v="STIP / PENGHAPUS KENKO ERW-20SQ PUTIHDOS" u="1"/>
+        <s v="STIP / PENGHAPUS KENKO ERW-40SQ PUTIHDOS" u="1"/>
+        <s v="STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)LSN" u="1"/>
+        <s v="LSNSTAPLER KENKO HD-10D" u="1"/>
+        <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAMLSN" u="1"/>
+        <s v="GEL PEN KENKO KE-200LSN" u="1"/>
+        <s v="STAND PEN SPIRAL KENKO STP-300SGPCS" u="1"/>
+        <s v="LSNGEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAM" u="1"/>
+        <s v="LSNGEL PEN KENKO KE-303 T-GEL TRIANGULAR" u="1"/>
+        <s v="PENSIL KENKO 2B-6191 HIJAU CAP HITAMGRS" u="1"/>
+        <s v="PCSLABEL HARGA JOYKO LB-P2LN (2 LINE PUTIH)" u="1"/>
+        <s v="LSNCORRECTION TAPE KENKO CT-902 (12M x 5MM)" u="1"/>
+        <s v="PAKKARTU STOCK FOLIO PUTIH" u="1"/>
+        <s v="PCSLABEL HARGA JOYKO LB-3 (2 LINE KUNING FLUOR)" u="1"/>
         <s v="LABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)PCS" u="1"/>
-        <s v="LABEL HARGA JOYKO LB-P2LN (2 LINE PUTIH)PCS" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-8CO WARNA" u="1"/>
-        <s v="PCSSTAND PEN SPIRAL KENKO STP-300SG" u="1"/>
-        <s v="ISI CUTTER 18 MM KENKO L-150 (BESAR)LSN" u="1"/>
-        <s v="LSNPAPER CLIP WARNA KENKO 3100" u="1"/>
-        <s v="LSNISI CUTTER 18 MM KENKO L-150 (BESAR)" u="1"/>
-        <s v="HIGHLIGHTER / STABILLO JOYKO HL-1 KUNINGPCS" u="1"/>
-        <s v="CALCULATOR JOYKO CC-800CHPCS" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B40P PUTIH" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS JOYKO ER-B20BL HITAM" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS KENKO ERB-20SQ HITAM" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS KENKO ERB-40SQ HITAM" u="1"/>
-        <s v="KARTU STOCK FOLIO PUTIHPAK" u="1"/>
+        <s v="PENSIL KENKO 2B 0192GRS" u="1"/>
+        <s v="CALCULATOR JOYKO CC-15APCS" u="1"/>
+        <s v="PAKPAPER JUMBO CLIP KENKO NO. 5" u="1"/>
+        <s v="PAKLEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc" u="1"/>
+        <s v="PCSMESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)" u="1"/>
+        <s v="PCSSTAMP PLATE DATER KENKO S-68 (Cap Lunas)" u="1"/>
         <s v="CORRECTION FLUID JOYKO CF-S221BOX" u="1"/>
-        <s v="PCSSTAPLER GUNTACKER JOYKO GT-700" u="1"/>
-        <s v="PCSSTAPLER HEAVY DUTY JOYKO HD-12N/24" u="1"/>
-        <s v="GEL PEN ZHIXIN 3093LSN" u="1"/>
-        <s v="GRSBINDER CLIP KENKO NO. 107" u="1"/>
+        <s v="ISI PENSIL 2B 0.5 MM JOYKO PL-05GRS" u="1"/>
+        <s v="PCSSTAPLER HEAVY DUTY JOYKO HD-12N/13" u="1"/>
+        <s v="CORRECTION FLUID JOYKO CF-S224BOX" u="1"/>
+        <s v="CALCULATOR JOYKO CC-12CO WARNAPCS" u="1"/>
         <s v="DOSSTIP / PENGHAPUS KENKO ERW-20SQ PUTIH" u="1"/>
         <s v="DOSSTIP / PENGHAPUS KENKO ERW-40SQ PUTIH" u="1"/>
-        <s v="GEL PEN KENKO KE-200LSN" u="1"/>
-        <s v="CALCULATOR JOYKO CC-8APCS" u="1"/>
-        <s v="LSNGEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAM" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-41" u="1"/>
-        <s v="GRSBINDER CLIP KENKO NO. 260" u="1"/>
-        <s v="GEL PEN KENKO 0.28MM MICROTECLSN" u="1"/>
-        <s v="JANGKA (MATH SET) JOYKO MS-75LSN" u="1"/>
-        <s v="STAPLER HEAVY DUTY JOYKO HD-12N/24PCS" u="1"/>
-        <s v="GRSPENSIL KENKO 2B-6191 HIJAU CAP HITAM" u="1"/>
-        <s v="PENSIL KENKO 2B-6191 HIJAU CAP HITAMGRS" u="1"/>
-        <s v="PAKLEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc" u="1"/>
-        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)PCS3700" u="1"/>
-        <s v="LSNPUSH PIN JOYKO PP-30 WARNA" u="1"/>
-        <s v="LSNPUSH PIN KENKO PN-30 WARNA" u="1"/>
-        <s v="PCSPUNCH JOYKO 85B" u="1"/>
-        <s v="LSNDATE STAMP JOYKO S-68 (Lunas)" u="1"/>
-        <e v="#REF!" u="1"/>
-        <s v="KARTU STOCK KWARTO PUTIHPAK" u="1"/>
-        <s v="LSNGEL PEN KENKO SAHARA SNACK (HITAM)" u="1"/>
-        <s v="STAMP PLATE DATER KENKO S-68 (Cap Lunas)PCS" u="1"/>
-        <s v="CRAYON / OIL PASTEL JOYKO OP-18S PP CASE SEA WORLDPCS" u="1"/>
-        <s v="CRAYON / OIL PASTEL JOYKO OP-36S PP CASE SEA WORLDPCS" u="1"/>
-        <s v="CRAYON / OIL PASTEL JOYKO OP-48S PP CASE SEA WORLDPCS" u="1"/>
-        <s v="CRAYON / OIL PASTEL JOYKO OP-55S PP CASE SEA WORLDPCS" u="1"/>
-        <s v="LABEL HARGA KENKO 5002-2R (2 LINE) isi 10 rolPAK" u="1"/>
-        <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)PCS" u="1"/>
-        <s v="LSNGEL PEN KENKO KE-200" u="1"/>
-        <s v="PENSIL KENKO 2B 0192GRS" u="1"/>
-        <s v="STAMP PAD KENKO NO. 0LSN" u="1"/>
-        <s v="LSNSTAMP PAD KENKO NO. 0" u="1"/>
-        <s v="LSNGEL PEN ZHIXIN 3103" u="1"/>
-        <s v="PAKPAPER JUMBO CLIP KENKO NO. 5" u="1"/>
-        <s v="BOXCORRECTION FLUID JOYKO CF-S224" u="1"/>
-        <s v="STAPLER GUNTACKER JOYKO GT-700PCS" u="1"/>
-        <s v="BINDER CLIP KENKO NO. 107GRS" u="1"/>
-        <s v="DOZSTIP / PENGHAPUS JOYKO 526-B40P PUTIH" u="1"/>
-        <s v="LSNGEL PEN KENKO KE-303 T-GEL TRIANGULAR" u="1"/>
-        <s v="PCSLABEL HARGA JOYKO LB-2RL (1 LINE PUTIH)" u="1"/>
-        <s v="LSNPENCIL CASE KENKO PC-0719-MIX" u="1"/>
-        <s v="PENCIL CASE KENKO PC-0719 FANCYLSN" u="1"/>
-        <s v="ISI PENSIL 2B 0.5 MM JOYKO PL-05GRS" u="1"/>
-        <s v="PCSLABEL HARGA JOYKO LB-P2LN (2 LINE PUTIH)" u="1"/>
-        <s v="BOXISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)" u="1"/>
-        <s v="GEL PEN ZHIXIN 3112LSN" u="1"/>
-        <s v="PCSSTAPLER HEAVY DUTY JOYKO HD-12N/13" u="1"/>
-        <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIHDOZ" u="1"/>
-        <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcBOX" u="1"/>
-        <s v="GRSPENSIL KENKO 2B 0192" u="1"/>
-        <s v="GRSBINDER CLIP KENKO NO. 200" u="1"/>
-        <s v="CALCULATOR JOYKO CC-37PCS" u="1"/>
-        <s v="LSNBALLPEN JOYKO BP-338 VOCUS HITAM" u="1"/>
-        <s v="LSNISI PENSIL 2B 2.0 MM JOYKO PL-10" u="1"/>
-        <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS" u="1"/>
-        <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)PCS" u="1"/>
-        <s v="CALCULATOR JOYKO CC-38PCS" u="1"/>
-        <s v="PCSPENSIL WARNA JOYKO CP-12PB (PANJANG)" u="1"/>
-        <s v="PCSPENSIL WARNA JOYKO CP-24PB (PANJANG)" u="1"/>
-        <s v="GEL PEN KENKO HI-TECH-H 0.28 MM HITAMLSN" u="1"/>
-        <s v="DOUBLE TAPE KENKO 48 MM - BLUE CORE (2&quot;)PCS" u="1"/>
-        <s v="LSNCORRECTION FLUID KENKO KE-823M" u="1"/>
-        <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-11LSN" u="1"/>
-        <s v="PCSDOUBLE TAPE KENKO 48 MM - BLUE CORE (2&quot;)" u="1"/>
-        <s v="PCSPENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)" u="1"/>
-        <s v="PAPER CLIP WARNA KENKO 3100LSN" u="1"/>
-        <s v="CORRECTION TAPE JOYKO CT-507PCS" u="1"/>
-        <s v="DATE STAMP JOYKO S-68 (Lunas)LSN" u="1"/>
-        <s v="CORRECTION FLUID KENKO KE-823MLSN" u="1"/>
-        <s v="CORRECTION FLUID JOYKO CF-S224BOX" u="1"/>
-        <s v="CORRECTION FLUID JOYKO CF-S225LSN" u="1"/>
-        <s v="STAPLER JOYKO HD-10LSN" u="1"/>
-        <s v="STAPLER KENKO HD-10LSN" u="1"/>
-        <s v="GEL PEN JOYKO GP-265 Q-GELLSN" u="1"/>
-        <s v="PCSLABEL HARGA JOYKO LB-3 (2 LINE KUNING FLUOR)" u="1"/>
-        <s v="PAPER JUMBO CLIP KENKO NO. 5PAK" u="1"/>
-        <s v="LSNCORRECTION FLUID JOYKO CF-S225" u="1"/>
-        <s v="STAND PEN SPIRAL KENKO STP-300SGPCS" u="1"/>
-        <s v="GEL PEN ZHIXIN 3093LSN18000" u="1"/>
-        <s v="GEL PEN ZHIXIN 3103LSN18000" u="1"/>
-        <s v="STAPLER KENKO HD-50LSN" u="1"/>
-        <s v="LSNPENCIL CASE KENKO PC-0719 FANCY" u="1"/>
-        <s v="LSNGEL PEN ZHIXIN 3093" u="1"/>
-        <s v="PAKISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-37" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-8A" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-800CH" u="1"/>
-        <s v="CALCULATOR JOYKO DTC-1313CHPCS" u="1"/>
-        <s v="CUTTER 9 MM KENKO K-200 (KECIL)LSN" u="1"/>
-        <s v="LSNISI PENSIL 2B 2.0 MM JOYKO PL-11" u="1"/>
-        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B40BL HITAM" u="1"/>
-        <s v="LSNCORRECTION TAPE KENKO CT-902 (12M x 5MM)" u="1"/>
-        <s v="PCSMESIN LABEL HARGA JOYKO MX-5500M (8 DIGITS, 1 LINE)" u="1"/>
-        <s v="CALCULATOR JOYKO CC-12CO WARNAPCS" u="1"/>
+        <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)LSN" u="1"/>
         <s v="LSNGEL PEN KENKO HI-TECH-H 0.28 MM HITAM" u="1"/>
-        <s v="LSNSTAMP PLATE NUMBER KENKO N-38 (Cap Nomer)" u="1"/>
+        <s v="CALCULATOR JOYKO CC-8CO WARNAPCS" u="1"/>
         <s v="PCSCALCULATOR JOYKO CC-38" u="1"/>
-        <s v="PAKPAPER TRIGONAL CLIP KENKO NO. 3" u="1"/>
-        <s v="PAPER TRIGONAL CLIP KENKO NO. 3PAK" u="1"/>
         <s v="STIP / PENGHAPUS JOYKO ER-B20BL HITAMDOS" u="1"/>
         <s v="STIP / PENGHAPUS KENKO ERB-20SQ HITAMDOS" u="1"/>
         <s v="STIP / PENGHAPUS KENKO ERB-40SQ HITAMDOS" u="1"/>
-        <s v="GEL PEN KENKO KE-303 T-GEL TRIANGULAR HITAMLSN" u="1"/>
-        <s v="LABEL HARGA JOYKO LB-3 (2 LINE KUNING FLUOR)PCS" u="1"/>
+        <s v="KARTU STOCK FOLIO PUTIHPAK" u="1"/>
+        <s v="GEL PEN KENKO 0.28MM MICROTECLSN" u="1"/>
+        <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcPAK" u="1"/>
+        <s v="GRSPENSIL KENKO 2B 0192" u="1"/>
+        <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)PCS" u="1"/>
+        <s v="PENSIL WARNA JOYKO CP-24PB (PANJANG)PCS" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-8CO WARNA" u="1"/>
+        <s v="LSNBALLPEN JOYKO BP-338 VOCUS HITAM" u="1"/>
+        <s v="CALCULATOR JOYKO CC-800CHPCS" u="1"/>
+        <s v="CORRECTION FLUID JOYKO CF-S209ALSN" u="1"/>
+        <s v="LSNGEL PEN ZHIXIN 3103" u="1"/>
+        <s v="PCSSTAPLER HEAVY DUTY KENKO HD-12L/24" u="1"/>
+        <s v="LSNISI PENSIL 2B 2.0 MM JOYKO PL-10" u="1"/>
+        <s v="DOUBLE TAPE KENKO 48 MM - BLUE CORE (2&quot;)PCS" u="1"/>
+        <s v="LSNGEL PEN KENKO KE-200" u="1"/>
+        <s v="PCSPENSIL WARNA JOYKO CP-12PB (PANJANG)" u="1"/>
+        <s v="PCSPENSIL WARNA JOYKO CP-24PB (PANJANG)" u="1"/>
+        <s v="STAPLER SDI 1102 NO.10 (HD-10)LSN168000" u="1"/>
+        <s v="PCSSTAPLER HEAVY DUTY JOYKO HD-12N/24" u="1"/>
+        <s v="SETPENSIL WARNA JOYKO CP-12PB (PANJANG)" u="1"/>
+        <s v="JANGKA (MATH SET) JOYKO MS-55LSN" u="1"/>
+        <s v="GUNTING JOYKO SC-828LSN" u="1"/>
+        <s v="BOXISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)" u="1"/>
+        <s v="LSNGEL PEN JOYKO GP-265 Q-GEL" u="1"/>
+        <s v="LSNCORRECTION FLUID JOYKO CF-S209A" u="1"/>
+        <s v="LSNPAPER CLIP WARNA KENKO 3100" u="1"/>
+        <s v="PENCIL CASE KENKO PC-0719-MIXLSN" u="1"/>
+        <s v="LSNSTAPLER KENKO HD-50" u="1"/>
         <s v="PUNCH JOYKO 85BPCS" u="1"/>
-        <s v="PENSIL WARNA KENKO CP-12HALF CLASSIC (PENDEK)LSN" u="1"/>
-        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)PCS" u="1"/>
-        <s v="LSNSTAPLER JOYKO HD-10" u="1"/>
-        <s v="PCSSTAPLER HEAVY DUTY KENKO HD-12L/24" u="1"/>
-        <s v="CALCULATOR JOYKO CC-47COPCS" u="1"/>
-        <s v="PAKKARTU STOCK KWARTO PUTIH" u="1"/>
-        <s v="GRSPENSIL JOYKO 2B P-88" u="1"/>
-        <s v="CALCULATOR JOYKO CC-8CO WARNAPCS" u="1"/>
-        <s v="STIP / PENGHAPUS JOYKO 526-B40P PUTIHDOS" u="1"/>
-        <s v="STIP / PENGHAPUS KENKO ERW-20SQ PUTIHDOS" u="1"/>
-        <s v="STIP / PENGHAPUS KENKO ERW-40SQ PUTIHDOS" u="1"/>
-        <s v="CALCULATOR JOYKO CC-41PCS" u="1"/>
-        <s v="LSNCORRECTION FLUID JOYKO CF-S209A" u="1"/>
-        <s v="GRSISI PENSIL 2B 0.5 MM JOYKO PL-05" u="1"/>
-        <s v="GEL PEN KENKO SAHARA SNACK (HITAM)LSN" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-12CO WARNA" u="1"/>
-        <s v="SETPENSIL WARNA JOYKO CP-12PB (PANJANG)" u="1"/>
-        <s v="CALCULATOR JOYKO CC-15APCS" u="1"/>
+        <s v="GEL PEN ZHIXIN 3093LSN" u="1"/>
+        <s v="LSNSTAPLER KENKO HD-10" u="1"/>
+        <s v="LSNSTAMP PLATE NUMBER KENKO N-38 (Cap Nomer)" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS KENKO ERB-20SQ HITAM" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS KENKO ERB-40SQ HITAM" u="1"/>
+        <s v="JANGKA (MATH SET) JOYKO MS-75LSN" u="1"/>
+        <s v="LSNCORRECTION FLUID KENKO KE-823M" u="1"/>
+        <s v="LSNPUSH PIN JOYKO PP-30 WARNA" u="1"/>
+        <s v="LSNPUSH PIN KENKO PN-30 WARNA" u="1"/>
+        <s v="LSNGEL PEN KENKO SAHARA SNACK (HITAM)" u="1"/>
+        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIXPCS3700" u="1"/>
+        <s v="PAKLOOSE LEAF JOYKO A5-7020 (50S)" u="1"/>
+        <s v="ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)PAK" u="1"/>
+        <s v="GEL PEN ZHIXIN 3112LSN" u="1"/>
+        <s v="PAPER TRIGONAL CLIP KENKO NO. 3PAK" u="1"/>
+        <s v="CALCULATOR JOYKO DTC-1313CHPCS" u="1"/>
+        <s v="PCSCALCULATOR JOYKO CC-8A" u="1"/>
+        <s v="BINDER CLIP KENKO NO. 200GRS" u="1"/>
+        <s v="GEL PEN ZHIXIN 3103LSN" u="1"/>
+        <s v="GRSBINDER CLIP KENKO NO. 200" u="1"/>
+        <s v="PCSPUNCH JOYKO 85B" u="1"/>
+        <s v="ISI CUTTER 18 MM KENKO L-150 (BESAR)LSN" u="1"/>
+        <s v="LSNPENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)" u="1"/>
         <s v="LSNJANGKA (MATH SET) JOYKO MS-55" u="1"/>
-        <s v="PENSIL WARNA JOYKO CP-12PB (PANJANG)SET" u="1"/>
-        <s v="GEL PEN ZHIXIN 3103LSN" u="1"/>
+        <s v="STAPLER KENKO HD-10DLSN" u="1"/>
+        <s v="GEL PEN JOYKO GP-265 Q-GELLSN" u="1"/>
+        <s v="BOXLEM STICK KENKO 15 GR (TANGGUNG) isi 20 pc" u="1"/>
+        <s v="DOSSTIP / PENGHAPUS JOYKO 526-B40BL HITAM" u="1"/>
         <s v="LSNGEL PEN ZHIXIN 3112" u="1"/>
-        <s v="BOXCORRECTION FLUID JOYKO CF-S221" u="1"/>
-        <s v="BALLPEN JOYKO BP-338 VOCUS HITAMLSN" u="1"/>
-        <s v="STAPLER HEAVY DUTY JOYKO HD-12N/13PCS" u="1"/>
-        <s v="PCSDATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)" u="1"/>
-        <s v="PCSCALCULATOR JOYKO CC-15A" u="1"/>
-        <s v="JANGKA (MATH SET) JOYKO MS-55LSN" u="1"/>
-        <s v="LSNSTAPLER KENKO HD-10" u="1"/>
         <s v="PUSH PIN JOYKO PP-30 WARNALSN" u="1"/>
         <s v="PUSH PIN KENKO PN-30 WARNALSN" u="1"/>
-        <s v="STAMP PLATE NUMBER KENKO N-38 (Cap Nomer)LSN" u="1"/>
-        <s v="ISI STAPLER (STAPLES) KENKO 1210 PREMIUM (23/10)BOX" u="1"/>
+        <s v="CALCULATOR JOYKO CC-47COPCS" u="1"/>
+        <s v="HIGHLIGHTER / STABILLO JOYKO HL MIX (PINK / ORANGE)PCS3700" u="1"/>
+        <s v="LEM LIQUID (CAIR) JOYKO GL-R35 (35 ML)LSN" u="1"/>
+        <s v="LSNISI PENSIL 2B 2.0 MM JOYKO PL-11" u="1"/>
+        <s v="PAKPAPER TRIGONAL CLIP KENKO NO. 3" u="1"/>
+        <s v="CORRECTION TAPE KENKO CT-902 (12M x 5MM)LSN" u="1"/>
+        <s v="BINDER CLIP KENKO NO. 260GRS" u="1"/>
+        <s v="STAPLER HEAVY DUTY KENKO HD-12L/24PCS" u="1"/>
+        <s v="ISI PENSIL 2B 2.0 MM JOYKO PL-10LSN" u="1"/>
+        <s v="PAPER CLIP WARNA KENKO 3100LSN" u="1"/>
+        <s v="LOOSE LEAF JOYKO A5-7020 (50S)PAK" u="1"/>
+        <s v="GEL PEN KENKO SAHARA SNACK (HITAM)LSN" u="1"/>
+        <s v="STAMP PLATE DATER KENKO S-68 (Cap Lunas)PCS" u="1"/>
+        <s v="PCSSTAND PEN SPIRAL KENKO STP-300SG" u="1"/>
         <s v="PCSCALCULATOR JOYKO DTC-1313CH" u="1"/>
-        <s v="PCSCORRECTION TAPE JOYKO CT-507" u="1"/>
-        <s v="LSN26100" u="1"/>
-        <s v="LSNPENSIL WARNA KENKO CP-12F CLASSIC (PANJANG)" u="1"/>
-        <s v="DATE STAMP KENKO D-4 (Cap Tanggal 4 Mm)PCS" u="1"/>
-        <s v="PCSHIGHLIGHTER / STABILLO JOYKO HL-1 KUNING" u="1"/>
-        <s v="LEM STICK KENKO 15 GR (TANGGUNG) isi 20 pcPAK" u="1"/>
-        <s v="LSNGUNTING JOYKO SC-828" u="1"/>
-        <s v="STIP / PENGHAPUS JOYKO 526-B40BL HITAMDOS" u="1"/>
+        <s v="LSNLEM LIQUID (CAIR) JOYKO GL-R35 (35 ML)" u="1"/>
+        <s v="CALCULATOR JOYKO CC-37PCS" u="1"/>
+        <s v="CALCULATOR JOYKO CC-38PCS" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -32163,35 +32218,35 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=" "/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="4"/>
+    <x v="35"/>
+    <n v="23010034"/>
+    <d v="2023-01-26T00:00:00"/>
+    <s v="ko"/>
+    <s v="0700"/>
+    <s v="centraal"/>
+    <s v="AM 23010034"/>
+    <s v="KO 0700"/>
+    <s v="CV TRINITY CENTRAAL PURWOKERTO"/>
+    <n v="30"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="STASDI1102"/>
+    <s v="STAPLER SDI 1102 NO.10 (HD-10)"/>
+    <s v="STAPLER SDI 1102 NO.10 (HD-10)"/>
+    <n v="138000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="3622500"/>
+    <s v="NOVI / CONDRO"/>
+    <m/>
+    <n v="164"/>
+    <n v="3"/>
+    <n v="4140000"/>
+    <n v="517500"/>
+    <n v="3622500"/>
+    <n v="12108900"/>
+    <m/>
+    <x v="107"/>
   </r>
   <r>
     <x v="1"/>
@@ -32203,26 +32258,26 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="4"/>
+    <n v="20"/>
+    <s v="LSN"/>
+    <n v="1"/>
+    <s v="STASDI1123"/>
+    <s v="STAPLER SDI 1123"/>
+    <s v="STAPLER SDI 1123"/>
+    <n v="300000"/>
+    <n v="0.125"/>
+    <m/>
+    <n v="5250000"/>
+    <m/>
+    <m/>
+    <n v="164"/>
+    <n v="3"/>
+    <n v="6000000"/>
+    <n v="750000"/>
+    <n v="5250000"/>
+    <s v=""/>
+    <m/>
+    <x v="108"/>
   </r>
   <r>
     <x v="1"/>
@@ -32234,26 +32289,26 @@
     <s v=""/>
     <s v=" "/>
     <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <m/>
-    <m/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <s v=""/>
-    <m/>
-    <x v="4"/>
+    <n v="40"/>
+    <s v="LSN"/>
+    <n v="2"/>
+    <s v="STAKENHD10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <s v="STAPLER KENKO HD-10"/>
+    <n v="93000"/>
+    <n v="0.13"/>
+    <m/>
+    <n v="3236400"/>
+    <m/>
+    <m/>
+    <n v="164"/>
+    <n v="3"/>
+    <n v="3720000"/>
+    <n v="483600"/>
+    <n v="3236400"/>
+    <s v=""/>
+    <m/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -32786,11 +32841,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A2:A38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:A39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
@@ -32824,6 +32879,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item x="1"/>
         <item x="3"/>
         <item t="default"/>
@@ -32861,7 +32917,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -32967,6 +33023,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -32975,7 +33034,7 @@
     <i/>
   </colItems>
   <formats count="1">
-    <format dxfId="34">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -32995,8 +33054,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:A109" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="89" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A111" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -33027,326 +33086,329 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="312">
+      <items count="315">
         <item x="4"/>
-        <item m="1" x="293"/>
+        <item m="1" x="173"/>
         <item x="25"/>
-        <item m="1" x="201"/>
+        <item m="1" x="161"/>
         <item x="6"/>
-        <item m="1" x="114"/>
+        <item m="1" x="283"/>
         <item x="7"/>
-        <item m="1" x="126"/>
+        <item m="1" x="303"/>
         <item x="47"/>
+        <item m="1" x="191"/>
+        <item m="1" x="165"/>
+        <item m="1" x="259"/>
         <item m="1" x="292"/>
-        <item m="1" x="199"/>
-        <item m="1" x="209"/>
-        <item m="1" x="117"/>
-        <item m="1" x="258"/>
+        <item m="1" x="227"/>
         <item x="76"/>
-        <item m="1" x="287"/>
+        <item m="1" x="218"/>
         <item x="73"/>
-        <item m="1" x="216"/>
+        <item m="1" x="313"/>
         <item x="70"/>
-        <item m="1" x="221"/>
+        <item m="1" x="314"/>
         <item x="71"/>
-        <item m="1" x="281"/>
+        <item m="1" x="160"/>
         <item x="72"/>
-        <item m="1" x="274"/>
+        <item m="1" x="297"/>
         <item x="35"/>
-        <item m="1" x="154"/>
+        <item m="1" x="245"/>
         <item x="77"/>
         <item x="102"/>
-        <item m="1" x="168"/>
+        <item m="1" x="163"/>
         <item x="75"/>
-        <item m="1" x="277"/>
+        <item m="1" x="232"/>
         <item x="74"/>
-        <item m="1" x="252"/>
+        <item m="1" x="281"/>
         <item x="34"/>
-        <item m="1" x="110"/>
+        <item m="1" x="246"/>
         <item x="36"/>
-        <item m="1" x="160"/>
+        <item m="1" x="223"/>
         <item x="87"/>
-        <item m="1" x="234"/>
+        <item m="1" x="226"/>
         <item x="88"/>
-        <item m="1" x="235"/>
+        <item m="1" x="198"/>
         <item x="89"/>
-        <item m="1" x="233"/>
+        <item m="1" x="190"/>
         <item x="64"/>
-        <item m="1" x="231"/>
+        <item m="1" x="154"/>
         <item x="85"/>
-        <item m="1" x="107"/>
+        <item m="1" x="302"/>
         <item x="52"/>
-        <item m="1" x="187"/>
+        <item m="1" x="115"/>
         <item x="13"/>
-        <item m="1" x="188"/>
+        <item m="1" x="116"/>
         <item x="14"/>
-        <item m="1" x="189"/>
+        <item m="1" x="117"/>
         <item x="15"/>
-        <item m="1" x="190"/>
+        <item m="1" x="118"/>
         <item x="16"/>
-        <item m="1" x="253"/>
+        <item m="1" x="132"/>
         <item x="39"/>
-        <item m="1" x="232"/>
+        <item m="1" x="131"/>
         <item x="90"/>
-        <item m="1" x="307"/>
+        <item m="1" x="129"/>
         <item x="20"/>
-        <item m="1" x="145"/>
-        <item m="1" x="255"/>
-        <item m="1" x="155"/>
-        <item m="1" x="156"/>
-        <item m="1" x="157"/>
-        <item m="1" x="158"/>
-        <item m="1" x="165"/>
-        <item m="1" x="166"/>
-        <item m="1" x="225"/>
+        <item m="1" x="147"/>
+        <item m="1" x="293"/>
+        <item m="1" x="111"/>
+        <item m="1" x="164"/>
+        <item m="1" x="269"/>
+        <item m="1" x="270"/>
+        <item m="1" x="228"/>
+        <item m="1" x="229"/>
+        <item m="1" x="250"/>
         <item x="91"/>
-        <item m="1" x="202"/>
+        <item m="1" x="113"/>
+        <item m="1" x="291"/>
+        <item x="26"/>
         <item m="1" x="238"/>
-        <item x="26"/>
-        <item m="1" x="172"/>
         <item x="92"/>
         <item x="103"/>
-        <item m="1" x="224"/>
+        <item m="1" x="155"/>
         <item x="50"/>
-        <item m="1" x="167"/>
+        <item m="1" x="207"/>
         <item x="3"/>
-        <item m="1" x="267"/>
+        <item m="1" x="206"/>
         <item x="12"/>
-        <item m="1" x="129"/>
+        <item m="1" x="135"/>
         <item x="54"/>
+        <item m="1" x="308"/>
+        <item x="99"/>
+        <item m="1" x="266"/>
+        <item m="1" x="171"/>
         <item m="1" x="284"/>
-        <item x="99"/>
-        <item m="1" x="163"/>
-        <item m="1" x="243"/>
-        <item m="1" x="290"/>
-        <item m="1" x="244"/>
-        <item m="1" x="210"/>
-        <item m="1" x="143"/>
+        <item m="1" x="172"/>
+        <item m="1" x="279"/>
+        <item m="1" x="168"/>
         <item x="95"/>
         <item x="97"/>
         <item x="96"/>
-        <item m="1" x="164"/>
-        <item m="1" x="215"/>
-        <item m="1" x="171"/>
-        <item m="1" x="283"/>
+        <item m="1" x="124"/>
+        <item m="1" x="285"/>
+        <item m="1" x="159"/>
+        <item m="1" x="144"/>
+        <item m="1" x="176"/>
+        <item m="1" x="240"/>
+        <item m="1" x="145"/>
+        <item m="1" x="258"/>
+        <item x="94"/>
+        <item m="1" x="194"/>
+        <item m="1" x="298"/>
         <item m="1" x="276"/>
+        <item m="1" x="137"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item m="1" x="287"/>
+        <item x="38"/>
+        <item m="1" x="224"/>
+        <item x="80"/>
+        <item m="1" x="305"/>
+        <item x="81"/>
+        <item m="1" x="110"/>
+        <item x="82"/>
+        <item m="1" x="183"/>
+        <item x="98"/>
+        <item m="1" x="278"/>
+        <item x="53"/>
+        <item m="1" x="257"/>
+        <item x="32"/>
+        <item m="1" x="271"/>
+        <item x="33"/>
+        <item m="1" x="237"/>
+        <item x="10"/>
+        <item m="1" x="128"/>
+        <item x="11"/>
+        <item m="1" x="216"/>
+        <item x="62"/>
+        <item m="1" x="177"/>
+        <item x="5"/>
+        <item m="1" x="123"/>
+        <item x="61"/>
+        <item m="1" x="146"/>
+        <item x="28"/>
+        <item m="1" x="299"/>
+        <item x="63"/>
+        <item m="1" x="174"/>
+        <item x="24"/>
+        <item m="1" x="239"/>
+        <item x="27"/>
+        <item m="1" x="307"/>
+        <item x="56"/>
+        <item m="1" x="196"/>
+        <item m="1" x="244"/>
+        <item m="1" x="261"/>
+        <item m="1" x="170"/>
+        <item m="1" x="272"/>
+        <item m="1" x="213"/>
+        <item m="1" x="139"/>
+        <item m="1" x="142"/>
+        <item m="1" x="260"/>
+        <item m="1" x="122"/>
+        <item m="1" x="231"/>
+        <item m="1" x="251"/>
+        <item m="1" x="210"/>
+        <item m="1" x="209"/>
+        <item m="1" x="275"/>
+        <item m="1" x="187"/>
+        <item m="1" x="247"/>
+        <item m="1" x="294"/>
+        <item m="1" x="189"/>
+        <item m="1" x="178"/>
+        <item m="1" x="249"/>
+        <item m="1" x="300"/>
+        <item m="1" x="289"/>
+        <item m="1" x="140"/>
+        <item m="1" x="312"/>
+        <item m="1" x="262"/>
+        <item m="1" x="186"/>
+        <item m="1" x="185"/>
+        <item m="1" x="288"/>
+        <item m="1" x="166"/>
+        <item m="1" x="273"/>
+        <item m="1" x="274"/>
+        <item m="1" x="125"/>
+        <item m="1" x="268"/>
+        <item m="1" x="188"/>
+        <item m="1" x="267"/>
+        <item m="1" x="205"/>
+        <item m="1" x="264"/>
+        <item m="1" x="158"/>
+        <item x="83"/>
+        <item m="1" x="184"/>
         <item m="1" x="214"/>
         <item m="1" x="175"/>
+        <item m="1" x="138"/>
+        <item m="1" x="220"/>
+        <item m="1" x="277"/>
+        <item m="1" x="219"/>
+        <item m="1" x="301"/>
+        <item m="1" x="306"/>
+        <item x="41"/>
+        <item m="1" x="127"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item m="1" x="280"/>
+        <item x="48"/>
+        <item m="1" x="157"/>
+        <item m="1" x="167"/>
         <item m="1" x="133"/>
-        <item x="94"/>
-        <item m="1" x="271"/>
-        <item m="1" x="178"/>
-        <item m="1" x="124"/>
-        <item m="1" x="153"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item m="1" x="150"/>
-        <item x="38"/>
-        <item m="1" x="207"/>
-        <item x="80"/>
-        <item m="1" x="139"/>
-        <item x="81"/>
-        <item m="1" x="227"/>
-        <item x="82"/>
-        <item m="1" x="302"/>
-        <item x="98"/>
-        <item m="1" x="125"/>
-        <item x="53"/>
-        <item m="1" x="297"/>
-        <item x="32"/>
-        <item m="1" x="173"/>
-        <item x="33"/>
-        <item m="1" x="159"/>
-        <item x="10"/>
-        <item m="1" x="184"/>
-        <item x="11"/>
-        <item m="1" x="146"/>
-        <item x="62"/>
-        <item m="1" x="268"/>
-        <item x="5"/>
-        <item m="1" x="147"/>
-        <item x="61"/>
-        <item m="1" x="191"/>
-        <item x="28"/>
-        <item m="1" x="111"/>
-        <item x="63"/>
-        <item m="1" x="213"/>
-        <item x="24"/>
-        <item m="1" x="309"/>
-        <item x="27"/>
+        <item m="1" x="233"/>
+        <item m="1" x="149"/>
+        <item m="1" x="169"/>
         <item m="1" x="109"/>
-        <item x="56"/>
-        <item m="1" x="305"/>
-        <item m="1" x="217"/>
         <item m="1" x="282"/>
-        <item m="1" x="241"/>
-        <item m="1" x="226"/>
-        <item m="1" x="256"/>
-        <item m="1" x="144"/>
-        <item m="1" x="182"/>
-        <item m="1" x="127"/>
-        <item m="1" x="141"/>
-        <item m="1" x="259"/>
-        <item m="1" x="193"/>
-        <item m="1" x="203"/>
-        <item m="1" x="169"/>
-        <item m="1" x="185"/>
-        <item m="1" x="247"/>
-        <item m="1" x="197"/>
-        <item m="1" x="291"/>
-        <item m="1" x="310"/>
-        <item m="1" x="152"/>
-        <item m="1" x="218"/>
-        <item m="1" x="254"/>
-        <item m="1" x="288"/>
-        <item m="1" x="121"/>
-        <item m="1" x="115"/>
-        <item m="1" x="151"/>
-        <item m="1" x="246"/>
-        <item m="1" x="205"/>
-        <item m="1" x="306"/>
-        <item m="1" x="118"/>
+        <item m="1" x="243"/>
+        <item m="1" x="311"/>
+        <item m="1" x="199"/>
         <item m="1" x="179"/>
         <item m="1" x="180"/>
-        <item m="1" x="196"/>
-        <item m="1" x="260"/>
-        <item m="1" x="272"/>
-        <item m="1" x="298"/>
+        <item m="1" x="181"/>
+        <item m="1" x="182"/>
+        <item m="1" x="192"/>
+        <item m="1" x="197"/>
         <item m="1" x="119"/>
-        <item m="1" x="108"/>
-        <item m="1" x="142"/>
-        <item x="83"/>
+        <item m="1" x="120"/>
+        <item m="1" x="130"/>
+        <item m="1" x="215"/>
+        <item m="1" x="212"/>
+        <item m="1" x="221"/>
+        <item m="1" x="252"/>
+        <item m="1" x="253"/>
+        <item m="1" x="193"/>
+        <item m="1" x="286"/>
+        <item m="1" x="222"/>
+        <item m="1" x="310"/>
+        <item m="1" x="136"/>
+        <item m="1" x="225"/>
+        <item m="1" x="255"/>
         <item m="1" x="248"/>
-        <item m="1" x="131"/>
-        <item m="1" x="275"/>
-        <item m="1" x="130"/>
-        <item m="1" x="177"/>
-        <item m="1" x="132"/>
-        <item m="1" x="198"/>
-        <item m="1" x="262"/>
-        <item m="1" x="230"/>
-        <item x="41"/>
-        <item m="1" x="240"/>
-        <item x="49"/>
-        <item x="106"/>
+        <item m="1" x="134"/>
+        <item x="37"/>
         <item m="1" x="263"/>
-        <item x="48"/>
-        <item m="1" x="285"/>
-        <item m="1" x="296"/>
-        <item m="1" x="249"/>
-        <item m="1" x="261"/>
-        <item m="1" x="170"/>
-        <item m="1" x="113"/>
-        <item m="1" x="251"/>
-        <item m="1" x="250"/>
+        <item x="86"/>
+        <item m="1" x="200"/>
+        <item x="78"/>
+        <item m="1" x="217"/>
+        <item x="1"/>
+        <item m="1" x="211"/>
+        <item x="0"/>
+        <item m="1" x="241"/>
+        <item x="8"/>
         <item m="1" x="148"/>
-        <item m="1" x="303"/>
-        <item m="1" x="304"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="295"/>
-        <item m="1" x="228"/>
-        <item m="1" x="140"/>
-        <item m="1" x="308"/>
-        <item m="1" x="204"/>
-        <item m="1" x="239"/>
-        <item m="1" x="208"/>
-        <item m="1" x="257"/>
-        <item m="1" x="222"/>
-        <item m="1" x="223"/>
-        <item m="1" x="229"/>
-        <item m="1" x="181"/>
-        <item m="1" x="134"/>
-        <item m="1" x="149"/>
-        <item m="1" x="161"/>
-        <item m="1" x="211"/>
-        <item m="1" x="162"/>
-        <item m="1" x="273"/>
-        <item m="1" x="206"/>
-        <item x="37"/>
-        <item m="1" x="122"/>
-        <item x="86"/>
-        <item m="1" x="120"/>
-        <item x="78"/>
-        <item m="1" x="194"/>
-        <item x="1"/>
-        <item m="1" x="176"/>
-        <item x="0"/>
-        <item m="1" x="219"/>
-        <item x="8"/>
-        <item m="1" x="289"/>
         <item x="93"/>
         <item x="105"/>
-        <item m="1" x="220"/>
+        <item m="1" x="242"/>
         <item x="9"/>
-        <item m="1" x="116"/>
+        <item m="1" x="126"/>
         <item x="22"/>
-        <item m="1" x="270"/>
+        <item m="1" x="230"/>
         <item x="21"/>
-        <item m="1" x="192"/>
+        <item m="1" x="162"/>
         <item x="18"/>
         <item x="104"/>
-        <item m="1" x="269"/>
+        <item m="1" x="265"/>
         <item x="31"/>
-        <item m="1" x="299"/>
+        <item m="1" x="295"/>
         <item x="84"/>
-        <item m="1" x="300"/>
+        <item m="1" x="296"/>
         <item x="42"/>
-        <item m="1" x="286"/>
+        <item m="1" x="256"/>
         <item x="100"/>
+        <item m="1" x="112"/>
+        <item x="51"/>
+        <item m="1" x="309"/>
+        <item x="19"/>
+        <item m="1" x="204"/>
+        <item x="23"/>
+        <item m="1" x="208"/>
+        <item x="17"/>
         <item m="1" x="195"/>
-        <item x="51"/>
-        <item m="1" x="186"/>
-        <item x="19"/>
-        <item m="1" x="301"/>
-        <item x="23"/>
-        <item m="1" x="242"/>
-        <item x="17"/>
-        <item m="1" x="200"/>
         <item x="79"/>
-        <item m="1" x="294"/>
+        <item m="1" x="156"/>
         <item x="68"/>
-        <item m="1" x="174"/>
+        <item m="1" x="153"/>
         <item x="67"/>
-        <item m="1" x="123"/>
+        <item m="1" x="304"/>
         <item x="55"/>
-        <item m="1" x="236"/>
+        <item m="1" x="150"/>
         <item x="65"/>
-        <item m="1" x="112"/>
+        <item m="1" x="290"/>
         <item x="40"/>
-        <item m="1" x="237"/>
+        <item m="1" x="151"/>
         <item x="2"/>
-        <item m="1" x="245"/>
+        <item m="1" x="152"/>
         <item x="66"/>
-        <item m="1" x="128"/>
+        <item x="107"/>
+        <item m="1" x="254"/>
+        <item x="108"/>
+        <item m="1" x="121"/>
         <item x="60"/>
         <item x="101"/>
-        <item m="1" x="311"/>
+        <item m="1" x="143"/>
         <item x="58"/>
-        <item m="1" x="278"/>
+        <item m="1" x="201"/>
         <item x="69"/>
-        <item m="1" x="212"/>
+        <item m="1" x="141"/>
         <item x="57"/>
-        <item m="1" x="264"/>
+        <item m="1" x="234"/>
         <item x="59"/>
-        <item m="1" x="265"/>
+        <item m="1" x="235"/>
         <item x="43"/>
-        <item m="1" x="266"/>
+        <item m="1" x="236"/>
         <item x="46"/>
-        <item m="1" x="279"/>
+        <item m="1" x="202"/>
         <item x="44"/>
-        <item m="1" x="280"/>
+        <item m="1" x="203"/>
         <item x="45"/>
-        <item m="1" x="183"/>
+        <item m="1" x="114"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="28"/>
   </rowFields>
-  <rowItems count="108">
+  <rowItems count="110">
     <i>
       <x/>
     </i>
@@ -33639,7 +33701,7 @@
       <x v="291"/>
     </i>
     <i>
-      <x v="293"/>
+      <x v="292"/>
     </i>
     <i>
       <x v="294"/>
@@ -33648,25 +33710,31 @@
       <x v="296"/>
     </i>
     <i>
-      <x v="298"/>
+      <x v="297"/>
     </i>
     <i>
-      <x v="300"/>
+      <x v="299"/>
     </i>
     <i>
-      <x v="302"/>
+      <x v="301"/>
     </i>
     <i>
-      <x v="304"/>
+      <x v="303"/>
     </i>
     <i>
-      <x v="306"/>
+      <x v="305"/>
     </i>
     <i>
-      <x v="308"/>
+      <x v="307"/>
     </i>
     <i>
-      <x v="310"/>
+      <x v="309"/>
+    </i>
+    <i>
+      <x v="311"/>
+    </i>
+    <i>
+      <x v="313"/>
     </i>
     <i t="grand">
       <x/>
@@ -33685,64 +33753,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AC183" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:AC183" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A2:AC183"/>
   <tableColumns count="29">
-    <tableColumn id="16" name="//" dataDxfId="64">
+    <tableColumn id="16" name="//" dataDxfId="65">
       <calculatedColumnFormula>IF(Table1[No. Invoice :]="","",ROW())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="63">
+    <tableColumn id="18" name="h_No. Invoice :" dataDxfId="64">
       <calculatedColumnFormula>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="62"/>
-    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="61"/>
-    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="60"/>
-    <tableColumn id="20" name="h_toko" dataDxfId="59"/>
-    <tableColumn id="1" name="No. Invoice :" dataDxfId="58">
+    <tableColumn id="2" name="Tgl Invoice :" dataDxfId="63"/>
+    <tableColumn id="17" name="h_Kode Sales :_1" dataDxfId="62"/>
+    <tableColumn id="19" name="h_Kode Sales :_2" dataDxfId="61"/>
+    <tableColumn id="20" name="h_toko" dataDxfId="60"/>
+    <tableColumn id="1" name="No. Invoice :" dataDxfId="59">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Kode Sales :" dataDxfId="57">
+    <tableColumn id="3" name="Kode Sales :" dataDxfId="58">
       <calculatedColumnFormula>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Toko" dataDxfId="56">
+    <tableColumn id="4" name="Toko" dataDxfId="57">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Qty" dataDxfId="55"/>
-    <tableColumn id="6" name="Unit" dataDxfId="54"/>
-    <tableColumn id="7" name="C" dataDxfId="53"/>
-    <tableColumn id="8" name="h_Item Description" dataDxfId="52"/>
-    <tableColumn id="10" name="Column1" dataDxfId="51">
+    <tableColumn id="5" name="Qty" dataDxfId="56"/>
+    <tableColumn id="6" name="Unit" dataDxfId="55"/>
+    <tableColumn id="7" name="C" dataDxfId="54"/>
+    <tableColumn id="8" name="h_Item Description" dataDxfId="53"/>
+    <tableColumn id="10" name="Column1" dataDxfId="52">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Item Description" dataDxfId="50"/>
-    <tableColumn id="11" name="Unit Price" dataDxfId="49"/>
-    <tableColumn id="12" name="Disc 1" dataDxfId="48"/>
-    <tableColumn id="13" name="Disc 2" dataDxfId="47"/>
-    <tableColumn id="23" name="Amount" dataDxfId="46">
+    <tableColumn id="9" name="Item Description" dataDxfId="51"/>
+    <tableColumn id="11" name="Unit Price" dataDxfId="50"/>
+    <tableColumn id="12" name="Disc 1" dataDxfId="49"/>
+    <tableColumn id="13" name="Disc 2" dataDxfId="48"/>
+    <tableColumn id="23" name="Amount" dataDxfId="47">
       <calculatedColumnFormula>Table1[[#This Row],[h_hargasetelahdiskon]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota :" dataDxfId="45"/>
-    <tableColumn id="15" name="edited :" dataDxfId="44"/>
-    <tableColumn id="21" name="h_id" dataDxfId="43">
+    <tableColumn id="14" name="pembuat nota :" dataDxfId="46"/>
+    <tableColumn id="15" name="edited :" dataDxfId="45"/>
+    <tableColumn id="21" name="h_id" dataDxfId="44">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V2,Table1[[#This Row],[//]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="42">
+    <tableColumn id="22" name="h_jumlahbarang" dataDxfId="43">
       <calculatedColumnFormula>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="41">
+    <tableColumn id="24" name="h_hargasebelumdiskon" dataDxfId="42">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="h_diskon" dataDxfId="40">
+    <tableColumn id="25" name="h_diskon" dataDxfId="41">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="39">
+    <tableColumn id="26" name="h_hargasetelahdiskon" dataDxfId="40">
       <calculatedColumnFormula>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Total Invoice" dataDxfId="38">
+    <tableColumn id="27" name="Total Invoice" dataDxfId="39">
       <calculatedColumnFormula>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="KETERANGAN" dataDxfId="37"/>
-    <tableColumn id="29" name="H_A1" dataDxfId="36">
+    <tableColumn id="28" name="KETERANGAN" dataDxfId="38"/>
+    <tableColumn id="29" name="H_A1" dataDxfId="37">
       <calculatedColumnFormula>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -33754,40 +33822,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="pajak" displayName="pajak" ref="D2:O42" totalsRowCount="1">
   <autoFilter ref="D2:O41"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="33">
+    <tableColumn id="1" name="//" totalsRowLabel="Total" dataDxfId="34">
       <calculatedColumnFormula>IF(ROW()-2&lt;=jNota,A3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="No. Invoice :" dataDxfId="32">
+    <tableColumn id="2" name="No. Invoice :" dataDxfId="33">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="31">
+    <tableColumn id="3" name="Tgl Invoice :" dataDxfId="32">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Kode Sales :" dataDxfId="30">
+    <tableColumn id="4" name="Kode Sales :" dataDxfId="31">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Toko" dataDxfId="29">
+    <tableColumn id="5" name="Toko" dataDxfId="30">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="6" name="Total" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="7" name="Diskon" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="8" name="Sub Total" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="9" name="PPN 11%" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="10" name="Total Invoice" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>pajak[[#This Row],[Sub Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="pembuat nota" dataDxfId="18">
+    <tableColumn id="14" name="pembuat nota" dataDxfId="19">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="edited" dataDxfId="17">
+    <tableColumn id="15" name="edited" dataDxfId="18">
       <calculatedColumnFormula>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -33799,13 +33867,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="R2:T42" totalsRowShown="0">
   <autoFilter ref="R2:T42"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="cek_ppn" dataDxfId="16">
+    <tableColumn id="1" name="cek_ppn" dataDxfId="17">
       <calculatedColumnFormula>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="cek_rekap(share)" dataDxfId="15">
+    <tableColumn id="2" name="cek_rekap(share)" dataDxfId="16">
       <calculatedColumnFormula>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="cek_rekap(network)" dataDxfId="14">
+    <tableColumn id="3" name="cek_rekap(network)" dataDxfId="15">
       <calculatedColumnFormula>MATCH(pajak[[#This Row],[Kode Sales :]],'[4]REKAP PENJUALAN'!$B:$B,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -33814,43 +33882,43 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="E1:P108" totalsRowShown="0">
-  <autoFilter ref="E1:P108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="E1:P110" totalsRowShown="0">
+  <autoFilter ref="E1:P110"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="//NOTA" dataDxfId="12">
+    <tableColumn id="1" name="//NOTA" dataDxfId="13">
       <calculatedColumnFormula>MATCH(A2,Table1[H_A1],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="//DB" dataDxfId="11">
+    <tableColumn id="7" name="//DB" dataDxfId="12">
       <calculatedColumnFormula>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="NAMA" dataDxfId="10">
+    <tableColumn id="2" name="NAMA" dataDxfId="11">
       <calculatedColumnFormula>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="QTY" dataDxfId="9">
+    <tableColumn id="3" name="QTY" dataDxfId="10">
       <calculatedColumnFormula>SUMIF(Table1[H_A1],Sheet5!A2,Table1[Qty])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="UNIT" dataDxfId="8">
+    <tableColumn id="4" name="UNIT" dataDxfId="9">
       <calculatedColumnFormula>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="C" dataDxfId="7">
+    <tableColumn id="5" name="C" dataDxfId="8">
       <calculatedColumnFormula>SUMIF(Table1[H_A1],Sheet5!A2,Table1[C])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Unit Price" dataDxfId="6">
+    <tableColumn id="6" name="Unit Price" dataDxfId="7">
       <calculatedColumnFormula>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="a1" dataDxfId="5">
+    <tableColumn id="8" name="a1" dataDxfId="6">
       <calculatedColumnFormula>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="a2" dataDxfId="4">
+    <tableColumn id="9" name="a2" dataDxfId="5">
       <calculatedColumnFormula>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="b1" dataDxfId="3">
+    <tableColumn id="10" name="b1" dataDxfId="4">
       <calculatedColumnFormula>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="b2" dataDxfId="2">
+    <tableColumn id="11" name="b2" dataDxfId="3">
       <calculatedColumnFormula>IF(Table5[[#This Row],[b1]]="","","PCS")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="c1" dataDxfId="1"/>
+    <tableColumn id="12" name="c1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33864,7 +33932,7 @@
     <tableColumn id="2" name="b"/>
     <tableColumn id="3" name="c"/>
     <tableColumn id="4" name="d"/>
-    <tableColumn id="5" name="e" dataDxfId="0">
+    <tableColumn id="5" name="e" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[b]],IF(Table2[[#This Row],[c]]=""," ",CONCATENATE(" ",Table2[[#This Row],[c]]," ")),Table2[[#This Row],[d]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34162,8 +34230,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC183"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView topLeftCell="L130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q163" sqref="Q163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46937,11 +47005,11 @@
         <v>28300</v>
       </c>
       <c r="Q162" s="94">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="S162" s="93">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="T162" s="93" t="s">
         <v>119</v>
@@ -46960,15 +47028,15 @@
       </c>
       <c r="Y162" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v>183950</v>
+        <v>191025</v>
       </c>
       <c r="Z162" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="AA162" s="93">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="AB162" s="93"/>
       <c r="AC162" s="93" t="str">
@@ -47038,64 +47106,98 @@
       </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A164" s="95" t="str">
+      <c r="A164" s="95">
         <f>IF(Table1[No. Invoice :]="","",ROW())</f>
-        <v/>
-      </c>
-      <c r="B164" s="95" t="str">
+        <v>164</v>
+      </c>
+      <c r="B164" s="95">
         <f>IF(Table1[h_Kode Sales :_1]="","",B$1+COUNT(B$2:B163))</f>
-        <v/>
+        <v>23010034</v>
+      </c>
+      <c r="C164" s="98">
+        <v>44952</v>
+      </c>
+      <c r="D164" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="E164" s="97" t="s">
+        <v>479</v>
+      </c>
+      <c r="F164" s="92" t="s">
+        <v>43</v>
       </c>
       <c r="G164" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_No. Invoice :]]="","",CONCATENATE("AM"," ",Table1[[#This Row],[h_No. Invoice :]]))</f>
-        <v/>
+        <v>AM 23010034</v>
       </c>
       <c r="H164" s="96" t="str">
         <f>CONCATENATE(UPPER(Table1[[#This Row],[h_Kode Sales :_1]])," ",Table1[[#This Row],[h_Kode Sales :_2]])</f>
-        <v xml:space="preserve"> </v>
+        <v>KO 0700</v>
       </c>
       <c r="I164" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
-        <v/>
+        <v>CV TRINITY CENTRAAL PURWOKERTO</v>
+      </c>
+      <c r="J164" s="92">
+        <v>30</v>
+      </c>
+      <c r="K164" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="L164" s="92">
+        <v>1</v>
+      </c>
+      <c r="M164" s="92" t="s">
+        <v>480</v>
       </c>
       <c r="N164" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P164" s="93"/>
-      <c r="Q164" s="94"/>
-      <c r="S164" s="93" t="str">
+        <v>STAPLER SDI 1102 NO.10 (HD-10)</v>
+      </c>
+      <c r="O164" s="92" t="s">
+        <v>482</v>
+      </c>
+      <c r="P164" s="93">
+        <v>138000</v>
+      </c>
+      <c r="Q164" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="S164" s="93">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V164" s="95" t="str">
+        <v>3622500</v>
+      </c>
+      <c r="T164" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="V164" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V163,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W164" s="95" t="str">
+        <v>164</v>
+      </c>
+      <c r="W164" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X164" s="93" t="str">
+        <v>3</v>
+      </c>
+      <c r="X164" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y164" s="93" t="str">
+        <v>4140000</v>
+      </c>
+      <c r="Y164" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z164" s="93" t="str">
+        <v>517500</v>
+      </c>
+      <c r="Z164" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
-      </c>
-      <c r="AA164" s="93" t="str">
+        <v>3622500</v>
+      </c>
+      <c r="AA164" s="93">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
+        <v>12108900</v>
       </c>
       <c r="AB164" s="93"/>
       <c r="AC164" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER SDI 1102 NO.10 (HD-10)LSN138000</v>
       </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
@@ -47119,35 +47221,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="J165" s="92">
+        <v>20</v>
+      </c>
+      <c r="K165" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="L165" s="92">
+        <v>1</v>
+      </c>
+      <c r="M165" s="92" t="s">
+        <v>481</v>
+      </c>
       <c r="N165" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P165" s="93"/>
-      <c r="Q165" s="94"/>
-      <c r="S165" s="93" t="str">
+        <v>STAPLER SDI 1123</v>
+      </c>
+      <c r="O165" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="P165" s="93">
+        <v>300000</v>
+      </c>
+      <c r="Q165" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="S165" s="93">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V165" s="95" t="str">
+        <v>5250000</v>
+      </c>
+      <c r="V165" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V164,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W165" s="95" t="str">
+        <v>164</v>
+      </c>
+      <c r="W165" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X165" s="93" t="str">
+        <v>3</v>
+      </c>
+      <c r="X165" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y165" s="93" t="str">
+        <v>6000000</v>
+      </c>
+      <c r="Y165" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z165" s="93" t="str">
+        <v>750000</v>
+      </c>
+      <c r="Z165" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>5250000</v>
       </c>
       <c r="AA165" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -47156,7 +47277,7 @@
       <c r="AB165" s="93"/>
       <c r="AC165" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER SDI 1123LSN300000</v>
       </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
@@ -47180,35 +47301,54 @@
         <f>IF(Table1[[#This Row],[h_toko]]="","",INDEX(Table2[e],IF(Table1[[#This Row],[h_toko]]="","",MATCH(Table1[[#This Row],[h_toko]],Table2[a],0)),))</f>
         <v/>
       </c>
+      <c r="J166" s="92">
+        <v>40</v>
+      </c>
+      <c r="K166" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="L166" s="92">
+        <v>2</v>
+      </c>
+      <c r="M166" s="92" t="s">
+        <v>115</v>
+      </c>
       <c r="N166" s="95" t="str">
         <f>IF(Table1[[#This Row],[h_Item Description]]="","",INDEX([1]!db[NB PAJAK],MATCH(Table1[[#This Row],[h_Item Description]],[1]!db[kode],0)))</f>
-        <v/>
-      </c>
-      <c r="P166" s="93"/>
-      <c r="Q166" s="94"/>
-      <c r="S166" s="93" t="str">
+        <v>STAPLER KENKO HD-10</v>
+      </c>
+      <c r="O166" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="P166" s="93">
+        <v>93000</v>
+      </c>
+      <c r="Q166" s="94">
+        <v>0.13</v>
+      </c>
+      <c r="S166" s="93">
         <f>Table1[[#This Row],[h_hargasetelahdiskon]]</f>
-        <v/>
-      </c>
-      <c r="V166" s="95" t="str">
+        <v>3236400</v>
+      </c>
+      <c r="V166" s="95">
         <f>IF(Table1[[#This Row],[Item Description]]="","",IF(Table1[[#This Row],[//]]="",V165,Table1[[#This Row],[//]]))</f>
-        <v/>
-      </c>
-      <c r="W166" s="95" t="str">
+        <v>164</v>
+      </c>
+      <c r="W166" s="95">
         <f>IF(Table1[[#This Row],[h_id]]="","",COUNTIF(Table1[h_id],Table1[[#This Row],[h_id]]))</f>
-        <v/>
-      </c>
-      <c r="X166" s="93" t="str">
+        <v>3</v>
+      </c>
+      <c r="X166" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[Qty]]*Table1[[#This Row],[Unit Price]])</f>
-        <v/>
-      </c>
-      <c r="Y166" s="93" t="str">
+        <v>3720000</v>
+      </c>
+      <c r="Y166" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]*Table1[[#This Row],[Disc 1]])</f>
-        <v/>
-      </c>
-      <c r="Z166" s="93" t="str">
+        <v>483600</v>
+      </c>
+      <c r="Z166" s="93">
         <f>IF(Table1[Item Description]="","",Table1[[#This Row],[h_hargasebelumdiskon]]-Table1[[#This Row],[h_diskon]])</f>
-        <v/>
+        <v>3236400</v>
       </c>
       <c r="AA166" s="93" t="str">
         <f>IF(Table1[//]="","",SUMIF(Table1[h_id],Table1[h_id],Table1[h_hargasetelahdiskon]))</f>
@@ -47217,7 +47357,7 @@
       <c r="AB166" s="93"/>
       <c r="AC166" s="93" t="str">
         <f>Table1[[#This Row],[Item Description]]&amp;Table1[[#This Row],[Unit]]&amp;Table1[[#This Row],[Unit Price]]</f>
-        <v/>
+        <v>STAPLER KENKO HD-10LSN93000</v>
       </c>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
@@ -48271,8 +48411,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48302,7 +48442,7 @@
       </c>
       <c r="E1">
         <f>COUNT(Table1[//])</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -48359,7 +48499,7 @@
       </c>
       <c r="W2" s="89">
         <f>SUM(pajak[Total Invoice])</f>
-        <v>355069666</v>
+        <v>367171491</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -48431,7 +48571,7 @@
       </c>
       <c r="W3" s="89">
         <f>SUM(pajak[PPN 11%])</f>
-        <v>35187084.018018022</v>
+        <v>36386363.972972974</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -48500,7 +48640,7 @@
       </c>
       <c r="W4" s="89">
         <f>(W2/1.11)*11%</f>
-        <v>35187084.018018015</v>
+        <v>36386363.972972974</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -50491,19 +50631,19 @@
       </c>
       <c r="J35" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v>183950</v>
+        <v>191025</v>
       </c>
       <c r="K35" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L35" s="89">
         <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v>121995.94594594593</v>
+        <v>121294.81981981981</v>
       </c>
       <c r="M35" s="89">
         <f>pajak[[#This Row],[Sub Total]]</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="N35" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
@@ -50527,58 +50667,60 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="D36" s="86" t="str">
+      <c r="A36" s="88">
+        <v>164</v>
+      </c>
+      <c r="D36" s="86">
         <f t="shared" si="2"/>
-        <v/>
+        <v>164</v>
       </c>
       <c r="E36" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[No. Invoice :],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="F36" s="90" t="str">
+        <v>AM 23010034</v>
+      </c>
+      <c r="F36" s="90">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Tgl Invoice :],pajak[//]-offset))</f>
-        <v/>
+        <v>44952</v>
       </c>
       <c r="G36" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Kode Sales :],pajak[//]-offset))</f>
-        <v/>
+        <v>KO 0700</v>
       </c>
       <c r="H36" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[Toko],pajak[//]-offset))</f>
-        <v/>
-      </c>
-      <c r="I36" s="89" t="str">
+        <v>CV TRINITY CENTRAAL PURWOKERTO</v>
+      </c>
+      <c r="I36" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasebelumdiskon]))</f>
-        <v/>
-      </c>
-      <c r="J36" s="89" t="str">
+        <v>13860000</v>
+      </c>
+      <c r="J36" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_diskon]))</f>
-        <v/>
-      </c>
-      <c r="K36" s="89" t="str">
+        <v>1751100</v>
+      </c>
+      <c r="K36" s="89">
         <f>IF(pajak[[#This Row],[//]]="","",SUMIF(Table1[h_id],pajak[[#This Row],[//]],Table1[h_hargasetelahdiskon]))</f>
-        <v/>
-      </c>
-      <c r="L36" s="89" t="str">
+        <v>12108900</v>
+      </c>
+      <c r="L36" s="89">
         <f>IF(pajak[//]="","",pajak[[#This Row],[Sub Total]]/1.11*11%)</f>
-        <v/>
-      </c>
-      <c r="M36" s="89" t="str">
+        <v>1199981.0810810812</v>
+      </c>
+      <c r="M36" s="89">
         <f>pajak[[#This Row],[Sub Total]]</f>
-        <v/>
+        <v>12108900</v>
       </c>
       <c r="N36" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",INDEX(Table1[pembuat nota :],pajak[//]-offset))</f>
-        <v/>
+        <v>NOVI / CONDRO</v>
       </c>
       <c r="O36" s="86" t="str">
         <f>IF(pajak[[#This Row],[//]]="","",IF(INDEX(Table1[edited :],pajak[//]-offset)="","",INDEX(Table1[edited :],pajak[//]-offset)))</f>
         <v/>
       </c>
-      <c r="R36" s="86" t="str">
+      <c r="R36" s="86">
         <f>IF(pajak[[#This Row],[Kode Sales :]]="","",MATCH(pajak[[#This Row],[Kode Sales :]],[2]Invoice!$D:$D,0))</f>
-        <v/>
+        <v>3768</v>
       </c>
       <c r="S36" s="86" t="e">
         <f>MATCH(pajak[[#This Row],[No. Invoice :]],'[3]REKAP PENJUALAN'!$B:$B,0)</f>
@@ -50590,9 +50732,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="88" t="s">
-        <v>106</v>
-      </c>
+      <c r="A37" s="88"/>
       <c r="D37" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -50656,7 +50796,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="88" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D38" s="86" t="str">
         <f t="shared" si="2"/>
@@ -50720,6 +50860,9 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="88" t="s">
+        <v>56</v>
+      </c>
       <c r="D39" s="86" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -50912,23 +51055,23 @@
       <c r="F42"/>
       <c r="I42" s="89">
         <f>SUBTOTAL(109,pajak[Total])</f>
-        <v>406320000</v>
+        <v>420180000</v>
       </c>
       <c r="J42" s="89">
         <f>SUBTOTAL(109,pajak[Diskon])</f>
-        <v>51250334</v>
+        <v>53008509</v>
       </c>
       <c r="K42" s="89">
         <f>SUBTOTAL(109,pajak[Sub Total])</f>
-        <v>355069666</v>
+        <v>367171491</v>
       </c>
       <c r="L42" s="89">
         <f>SUBTOTAL(109,pajak[PPN 11%])</f>
-        <v>35187084.018018022</v>
+        <v>36386363.972972974</v>
       </c>
       <c r="M42" s="89">
         <f>SUBTOTAL(109,pajak[Total Invoice])</f>
-        <v>355069666</v>
+        <v>367171491</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -50947,7 +51090,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G43:G1048576 G1:G41">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -50963,8 +51106,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -51011,6 +51154,9 @@
         <v>85</v>
       </c>
       <c r="J1" s="341"/>
+      <c r="K1">
+        <v>162</v>
+      </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="7.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -51199,7 +51345,7 @@
       </c>
       <c r="I11" s="52">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Disc 1],newestIdRow-offset+A11-1))</f>
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J11" s="52" t="str">
         <f>IF(A11&gt;jumlahBarang,"",IF(INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)="","",INDEX(Table1[Disc 2],newestIdRow-offset+A11-1)))</f>
@@ -51207,7 +51353,7 @@
       </c>
       <c r="K11" s="53">
         <f>IF(A11&gt;jumlahBarang,"",INDEX(Table1[Amount],newestIdRow-offset+A11-1))</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L11" s="36"/>
     </row>
@@ -51848,7 +51994,7 @@
       </c>
       <c r="J29" s="344">
         <f>INDEX(pajak[Sub Total],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="K29" s="345"/>
       <c r="L29" s="36"/>
@@ -51901,7 +52047,7 @@
       </c>
       <c r="J33" s="344">
         <f>INDEX(pajak[PPN 11%],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>121995.94594594593</v>
+        <v>121294.81981981981</v>
       </c>
       <c r="K33" s="345"/>
       <c r="L33" s="73"/>
@@ -51927,7 +52073,7 @@
       <c r="J35" s="76"/>
       <c r="K35" s="77">
         <f>INDEX(pajak[Total Invoice],MATCH(newestIdRow,pajak[//],0))</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L35" s="73"/>
     </row>
@@ -52186,7 +52332,7 @@
       </c>
       <c r="I49" s="161">
         <f>I11</f>
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J49" s="161" t="str">
         <f>J11</f>
@@ -52194,7 +52340,7 @@
       </c>
       <c r="K49" s="162">
         <f>K11</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L49" s="112"/>
     </row>
@@ -52840,7 +52986,7 @@
       </c>
       <c r="J67" s="316">
         <f>J29</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="K67" s="317"/>
       <c r="L67" s="112"/>
@@ -52913,7 +53059,7 @@
       </c>
       <c r="J71" s="316">
         <f>J33</f>
-        <v>121995.94594594593</v>
+        <v>121294.81981981981</v>
       </c>
       <c r="K71" s="317"/>
       <c r="L71" s="117"/>
@@ -52947,7 +53093,7 @@
       <c r="J73" s="181"/>
       <c r="K73" s="182">
         <f>K35</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L73" s="117"/>
     </row>
@@ -53219,7 +53365,7 @@
       </c>
       <c r="I87" s="250">
         <f>I49</f>
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J87" s="250" t="str">
         <f>J49</f>
@@ -53227,7 +53373,7 @@
       </c>
       <c r="K87" s="251">
         <f>K49</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L87" s="233"/>
     </row>
@@ -53873,7 +54019,7 @@
       </c>
       <c r="J105" s="298">
         <f>J67</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="K105" s="299"/>
       <c r="L105" s="233"/>
@@ -53946,7 +54092,7 @@
       </c>
       <c r="J109" s="298">
         <f>J71</f>
-        <v>121995.94594594593</v>
+        <v>121294.81981981981</v>
       </c>
       <c r="K109" s="299"/>
       <c r="L109" s="271"/>
@@ -53980,7 +54126,7 @@
       <c r="J111" s="274"/>
       <c r="K111" s="275">
         <f>K73</f>
-        <v>1231050</v>
+        <v>1223975</v>
       </c>
       <c r="L111" s="271"/>
     </row>
@@ -54103,10 +54249,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59123,7 +59269,7 @@
       </c>
       <c r="H97">
         <f>SUMIF(Table1[H_A1],Sheet5!A97,Table1[Qty])</f>
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="I97" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -59131,7 +59277,7 @@
       </c>
       <c r="J97" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A97,Table1[C])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K97" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
@@ -59139,7 +59285,7 @@
       </c>
       <c r="L97" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="M97" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
@@ -59207,43 +59353,43 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="88" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="E99" s="291">
         <f>MATCH(A99,Table1[H_A1],0)</f>
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="F99" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>669</v>
+        <v>1883</v>
       </c>
       <c r="G99" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO 526-B20 PUTIH</v>
+        <v>STAPLER SDI 1102 NO.10 (HD-10)</v>
       </c>
       <c r="H99">
         <f>SUMIF(Table1[H_A1],Sheet5!A99,Table1[Qty])</f>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I99" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>DOS</v>
+        <v>LSN</v>
       </c>
       <c r="J99" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A99,Table1[C])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K99" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>34100</v>
-      </c>
-      <c r="L99" s="86" t="str">
+        <v>138000</v>
+      </c>
+      <c r="L99" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>360</v>
       </c>
       <c r="M99" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N99" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -59257,43 +59403,43 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="88" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="E100" s="291">
         <f>MATCH(A100,Table1[H_A1],0)</f>
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="F100" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>670</v>
+        <v>1885</v>
       </c>
       <c r="G100" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAM</v>
+        <v>STAPLER SDI 1123</v>
       </c>
       <c r="H100">
         <f>SUMIF(Table1[H_A1],Sheet5!A100,Table1[Qty])</f>
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I100" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>BOX</v>
+        <v>LSN</v>
       </c>
       <c r="J100" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A100,Table1[C])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K100" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>28300</v>
-      </c>
-      <c r="L100" s="86" t="str">
+        <v>300000</v>
+      </c>
+      <c r="L100" s="86">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
-        <v/>
+        <v>240</v>
       </c>
       <c r="M100" s="86" t="str">
         <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
-        <v/>
+        <v>PCS</v>
       </c>
       <c r="N100" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
@@ -59307,23 +59453,23 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="88" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E101" s="291">
         <f>MATCH(A101,Table1[H_A1],0)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F101" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G101" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAM</v>
+        <v>STIP / PENGHAPUS JOYKO 526-B20 PUTIH</v>
       </c>
       <c r="H101">
         <f>SUMIF(Table1[H_A1],Sheet5!A101,Table1[Qty])</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I101" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -59331,11 +59477,11 @@
       </c>
       <c r="J101" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A101,Table1[C])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K101" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>28300</v>
+        <v>34100</v>
       </c>
       <c r="L101" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -59357,31 +59503,31 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="88" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E102" s="291">
         <f>MATCH(A102,Table1[H_A1],0)</f>
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F102" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G102" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</v>
+        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAM</v>
       </c>
       <c r="H102" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A102,Table1[Qty])</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I102" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>DOS</v>
+        <v>BOX</v>
       </c>
       <c r="J102" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A102,Table1[C])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K102" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
@@ -59407,19 +59553,19 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="88" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E103" s="291">
         <f>MATCH(A103,Table1[H_A1],0)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F103" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G103" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</v>
+        <v>STIP / PENGHAPUS JOYKO 526-B40BL HITAM</v>
       </c>
       <c r="H103" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A103,Table1[Qty])</f>
@@ -59427,7 +59573,7 @@
       </c>
       <c r="I103" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>DOZ</v>
+        <v>DOS</v>
       </c>
       <c r="J103" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A103,Table1[C])</f>
@@ -59457,23 +59603,23 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="88" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E104" s="291">
         <f>MATCH(A104,Table1[H_A1],0)</f>
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F104" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G104" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS JOYKO ER-B20BL HITAM</v>
+        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</v>
       </c>
       <c r="H104" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A104,Table1[Qty])</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I104" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -59481,11 +59627,11 @@
       </c>
       <c r="J104" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A104,Table1[C])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K104" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>34100</v>
+        <v>28300</v>
       </c>
       <c r="L104" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -59507,19 +59653,19 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="88" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E105" s="291">
         <f>MATCH(A105,Table1[H_A1],0)</f>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F105" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1129</v>
+        <v>671</v>
       </c>
       <c r="G105" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS KENKO ERB-20SQ HITAM</v>
+        <v>STIP / PENGHAPUS JOYKO 526-B40P PUTIH</v>
       </c>
       <c r="H105" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A105,Table1[Qty])</f>
@@ -59527,7 +59673,7 @@
       </c>
       <c r="I105" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
-        <v>DOS</v>
+        <v>DOZ</v>
       </c>
       <c r="J105" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A105,Table1[C])</f>
@@ -59535,7 +59681,7 @@
       </c>
       <c r="K105" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>30000</v>
+        <v>28300</v>
       </c>
       <c r="L105" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -59557,23 +59703,23 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="88" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E106" s="291">
         <f>MATCH(A106,Table1[H_A1],0)</f>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F106" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1130</v>
+        <v>678</v>
       </c>
       <c r="G106" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS KENKO ERB-40SQ HITAM</v>
+        <v>STIP / PENGHAPUS JOYKO ER-B20BL HITAM</v>
       </c>
       <c r="H106" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A106,Table1[Qty])</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I106" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -59581,11 +59727,11 @@
       </c>
       <c r="J106" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A106,Table1[C])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K106" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
-        <v>27500</v>
+        <v>34100</v>
       </c>
       <c r="L106" s="86" t="str">
         <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
@@ -59607,19 +59753,19 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="88" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E107" s="291">
         <f>MATCH(A107,Table1[H_A1],0)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F107" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1300</v>
+        <v>1129</v>
       </c>
       <c r="G107" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS KENKO ERW-20SQ PUTIH</v>
+        <v>STIP / PENGHAPUS KENKO ERB-20SQ HITAM</v>
       </c>
       <c r="H107" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A107,Table1[Qty])</f>
@@ -59657,23 +59803,23 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="88" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E108" s="291">
         <f>MATCH(A108,Table1[H_A1],0)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F108" s="291">
         <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G108" s="86" t="str">
         <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
-        <v>STIP / PENGHAPUS KENKO ERW-40SQ PUTIH</v>
+        <v>STIP / PENGHAPUS KENKO ERB-40SQ HITAM</v>
       </c>
       <c r="H108" s="86">
         <f>SUMIF(Table1[H_A1],Sheet5!A108,Table1[Qty])</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I108" s="86" t="str">
         <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
@@ -59681,7 +59827,7 @@
       </c>
       <c r="J108" s="292">
         <f>SUMIF(Table1[H_A1],Sheet5!A108,Table1[C])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" s="292">
         <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
@@ -59707,12 +59853,112 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="E109" s="291">
+        <f>MATCH(A109,Table1[H_A1],0)</f>
+        <v>57</v>
+      </c>
+      <c r="F109" s="291">
+        <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
+        <v>1300</v>
+      </c>
+      <c r="G109" s="86" t="str">
+        <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
+        <v>STIP / PENGHAPUS KENKO ERW-20SQ PUTIH</v>
+      </c>
+      <c r="H109" s="86">
+        <f>SUMIF(Table1[H_A1],Sheet5!A109,Table1[Qty])</f>
+        <v>100</v>
+      </c>
+      <c r="I109" s="86" t="str">
+        <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
+        <v>DOS</v>
+      </c>
+      <c r="J109" s="292">
+        <f>SUMIF(Table1[H_A1],Sheet5!A109,Table1[C])</f>
+        <v>2</v>
+      </c>
+      <c r="K109" s="292">
+        <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
+        <v>30000</v>
+      </c>
+      <c r="L109" s="86" t="str">
+        <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
+        <v/>
+      </c>
+      <c r="M109" s="86" t="str">
+        <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
+        <v/>
+      </c>
+      <c r="N109" s="86" t="str">
+        <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
+        <v/>
+      </c>
+      <c r="O109" s="86" t="str">
+        <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
+        <v/>
+      </c>
+      <c r="P109" s="86"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="E110" s="291">
+        <f>MATCH(A110,Table1[H_A1],0)</f>
+        <v>58</v>
+      </c>
+      <c r="F110" s="291">
+        <f>MATCH(Table5[[#This Row],[NAMA]],[1]!db[NB PAJAK],0)</f>
+        <v>1131</v>
+      </c>
+      <c r="G110" s="86" t="str">
+        <f>INDEX(Table1[Item Description],Table5[[#This Row],[//NOTA]])</f>
+        <v>STIP / PENGHAPUS KENKO ERW-40SQ PUTIH</v>
+      </c>
+      <c r="H110" s="86">
+        <f>SUMIF(Table1[H_A1],Sheet5!A110,Table1[Qty])</f>
+        <v>100</v>
+      </c>
+      <c r="I110" s="86" t="str">
+        <f>INDEX(Table1[Unit],Table5[[#This Row],[//NOTA]])</f>
+        <v>DOS</v>
+      </c>
+      <c r="J110" s="292">
+        <f>SUMIF(Table1[H_A1],Sheet5!A110,Table1[C])</f>
+        <v>2</v>
+      </c>
+      <c r="K110" s="292">
+        <f>INDEX(Table1[Unit Price],Table5[[#This Row],[//NOTA]])</f>
+        <v>27500</v>
+      </c>
+      <c r="L110" s="86" t="str">
+        <f>IF(Table5[[#This Row],[a2]]="","",Table5[[#This Row],[QTY]]*12)</f>
+        <v/>
+      </c>
+      <c r="M110" s="86" t="str">
+        <f>IF(Table5[[#This Row],[UNIT]]="grs","LSN",IF(Table5[[#This Row],[UNIT]]="LSN","PCS",""))</f>
+        <v/>
+      </c>
+      <c r="N110" s="86" t="str">
+        <f>IF(Table5[[#This Row],[a2]]="LSN",Table5[[#This Row],[a1]]*12,"")</f>
+        <v/>
+      </c>
+      <c r="O110" s="86" t="str">
+        <f>IF(Table5[[#This Row],[b1]]="","","PCS")</f>
+        <v/>
+      </c>
+      <c r="P110" s="86"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="88" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G108">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  <conditionalFormatting sqref="G2:G110">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
